--- a/Music/Triads.xlsx
+++ b/Music/Triads.xlsx
@@ -135,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64C864"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,88 +205,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF64C864"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -320,8 +250,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -637,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AO24"/>
+  <dimension ref="A2:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +585,7 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
@@ -1185,6 +1115,15 @@
       <c r="I9" t="s">
         <v>24</v>
       </c>
+      <c r="O9" s="4">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1205,6 +1144,15 @@
       <c r="J10" t="s">
         <v>31</v>
       </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1222,6 +1170,15 @@
       <c r="I11" t="s">
         <v>24</v>
       </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1239,6 +1196,15 @@
       <c r="I12" t="s">
         <v>29</v>
       </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1256,6 +1222,15 @@
       <c r="I13" t="s">
         <v>29</v>
       </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1276,6 +1251,15 @@
       <c r="J14" t="s">
         <v>31</v>
       </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1296,6 +1280,15 @@
       <c r="J15" t="s">
         <v>31</v>
       </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1313,8 +1306,17 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1333,8 +1335,17 @@
       <c r="J17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1350,8 +1361,17 @@
       <c r="I18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1367,8 +1387,17 @@
       <c r="I19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1384,8 +1413,17 @@
       <c r="I20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1401,8 +1439,17 @@
       <c r="I21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1418,8 +1465,17 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>24</v>
       </c>
@@ -1429,11 +1485,95 @@
       <c r="I23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22)</f>
         <v>aceacfadfbdfbdgbegceacegcfadfadfbdgbeacegbegcfacfadfbdgbdgbegce</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>7</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1441,8 +1581,13 @@
     <sortCondition ref="A2:A24"/>
   </sortState>
   <conditionalFormatting sqref="G3:I23">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>G3&lt;&gt;G2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:Q30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>O10&lt;&gt;O9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
